--- a/data/2008_data.xlsx
+++ b/data/2008_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A3AA3CD6F8412CDC20160BB8EB18FAE9512FA1D8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{634AECD0-ADCF-4C6B-8FB9-C89BE8164D8B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="276">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,553 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Bleeding Love</t>
   </si>
   <si>
+    <t>No One</t>
+  </si>
+  <si>
+    <t>Lollipop</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>No Air</t>
+  </si>
+  <si>
+    <t>Love Song</t>
+  </si>
+  <si>
+    <t>Love In This Club</t>
+  </si>
+  <si>
+    <t>With You</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>Sexy Can I</t>
+  </si>
+  <si>
+    <t>Take A Bow</t>
+  </si>
+  <si>
+    <t>Viva La Vida</t>
+  </si>
+  <si>
+    <t>I Kissed A Girl</t>
+  </si>
+  <si>
+    <t>Whatever You Like</t>
+  </si>
+  <si>
+    <t>Disturbia</t>
+  </si>
+  <si>
+    <t>Don't Stop The Music</t>
+  </si>
+  <si>
+    <t>Pocketful Of Sunshine</t>
+  </si>
+  <si>
+    <t>Kiss Kiss</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Bubbly</t>
+  </si>
+  <si>
+    <t>Touch My Body</t>
+  </si>
+  <si>
+    <t>4 Minutes</t>
+  </si>
+  <si>
+    <t>So What</t>
+  </si>
+  <si>
+    <t>Paralyzer</t>
+  </si>
+  <si>
+    <t>Clumsy</t>
+  </si>
+  <si>
+    <t>I'm Yours</t>
+  </si>
+  <si>
+    <t>Leavin'</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>Tattoo</t>
+  </si>
+  <si>
+    <t>See You Again</t>
+  </si>
+  <si>
+    <t>Shake It</t>
+  </si>
+  <si>
+    <t>Stop And Stare</t>
+  </si>
+  <si>
+    <t>Take You There</t>
+  </si>
+  <si>
+    <t>Paper Planes</t>
+  </si>
+  <si>
+    <t>Hot N Cold</t>
+  </si>
+  <si>
+    <t>Live Your Life</t>
+  </si>
+  <si>
+    <t>Bust It Baby Part 2</t>
+  </si>
+  <si>
+    <t>American Boy</t>
+  </si>
+  <si>
+    <t>Got Money</t>
+  </si>
+  <si>
+    <t>Our Song</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>A Milli</t>
+  </si>
+  <si>
+    <t>Sorry</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Can't Believe It</t>
+  </si>
+  <si>
+    <t>Like You'll Never See Me Again</t>
+  </si>
+  <si>
+    <t>Teardrops On My Guitar</t>
+  </si>
+  <si>
+    <t>When I Grow Up</t>
+  </si>
+  <si>
+    <t>Sensual Seduction</t>
+  </si>
+  <si>
+    <t>What You Got</t>
+  </si>
+  <si>
+    <t>It's Not My Time</t>
+  </si>
+  <si>
+    <t>Better In Time</t>
+  </si>
+  <si>
+    <t>Crank That (Soulja Boy)</t>
+  </si>
+  <si>
+    <t>Shadow Of The Day</t>
+  </si>
+  <si>
+    <t>Sweetest Girl (Dollar Bill)</t>
+  </si>
+  <si>
+    <t>Miss Independent</t>
+  </si>
+  <si>
+    <t>Fall For You</t>
+  </si>
+  <si>
+    <t>In The Ayer</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>One Step At A Time</t>
+  </si>
+  <si>
+    <t>Hate That I Love You</t>
+  </si>
+  <si>
+    <t>Superstar</t>
+  </si>
+  <si>
+    <t>Suffocate</t>
+  </si>
+  <si>
+    <t>Let It Rock</t>
+  </si>
+  <si>
+    <t>Get Like Me</t>
+  </si>
+  <si>
+    <t>Realize</t>
+  </si>
+  <si>
+    <t>Put On</t>
+  </si>
+  <si>
+    <t>The Time Of My Life</t>
+  </si>
+  <si>
+    <t>Lolli Lolli (Pop That Body)</t>
+  </si>
+  <si>
+    <t>Cyclone</t>
+  </si>
+  <si>
+    <t>Love Like This</t>
+  </si>
+  <si>
+    <t>Burnin' Up</t>
+  </si>
+  <si>
+    <t>Love Lockdown</t>
+  </si>
+  <si>
+    <t>I Luv Your Girl</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t>Hypnotized</t>
+  </si>
+  <si>
+    <t>Big Girls Don't Cry</t>
+  </si>
+  <si>
+    <t>Good Life</t>
+  </si>
+  <si>
+    <t>Womanizer</t>
+  </si>
+  <si>
+    <t>Love Story</t>
+  </si>
+  <si>
+    <t>Just Fine</t>
+  </si>
+  <si>
+    <t>Piece Of Me</t>
+  </si>
+  <si>
+    <t>The Boss</t>
+  </si>
+  <si>
+    <t>All Summer Long</t>
+  </si>
+  <si>
+    <t>Can't Help But Wait</t>
+  </si>
+  <si>
+    <t>In Love With A Girl</t>
+  </si>
+  <si>
+    <t>My Life</t>
+  </si>
+  <si>
+    <t>I Remember</t>
+  </si>
+  <si>
+    <t>Flashing Lights</t>
+  </si>
+  <si>
+    <t>Mrs. Officer</t>
+  </si>
+  <si>
+    <t>7 Things</t>
+  </si>
+  <si>
+    <t>You're Gonna Miss This</t>
+  </si>
+  <si>
+    <t>Love Remains The Same</t>
+  </si>
+  <si>
+    <t>Feels Like Tonight</t>
+  </si>
+  <si>
+    <t>The Way I Are</t>
+  </si>
+  <si>
+    <t>Addicted</t>
+  </si>
+  <si>
+    <t>Into The Night</t>
+  </si>
+  <si>
+    <t>Heaven Sent</t>
+  </si>
+  <si>
+    <t>She Got It</t>
+  </si>
+  <si>
     <t>Leona Lewis</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Static Major</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring OneRepublic</t>
+  </si>
+  <si>
+    <t>Jordin Sparks Duet With Chris Brown</t>
+  </si>
+  <si>
+    <t>Sara Bareilles</t>
+  </si>
+  <si>
+    <t>Usher Featuring Young Jeezy</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Ray J &amp; Yung Berg</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>T.I.</t>
+  </si>
+  <si>
+    <t>Natasha Bedingfield</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Colbie Caillat</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>Madonna Featuring Justin Timberlake &amp; Timbaland</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Finger Eleven</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Jesse McCartney</t>
+  </si>
+  <si>
+    <t>Kardinal Offishall Featuring Akon</t>
+  </si>
+  <si>
+    <t>Jordin Sparks</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Metro Station</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>M.I.A.</t>
+  </si>
+  <si>
+    <t>T.I. Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>Plies Featuring Ne-Yo</t>
+  </si>
+  <si>
+    <t>Estelle Featuring Kanye West</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Danity Kane</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Buckcherry</t>
+  </si>
+  <si>
+    <t>Webbie Featuring Lil' Phat &amp; Lil' Boosie</t>
+  </si>
+  <si>
+    <t>T-Pain Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Colby O'Donis Featuring Akon</t>
+  </si>
+  <si>
+    <t>3 Doors Down</t>
+  </si>
+  <si>
+    <t>Soulja Boy Tell'em</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Wyclef Jean Featuring Akon, Lil Wayne &amp; Niia</t>
+  </si>
+  <si>
+    <t>Secondhand Serenade</t>
+  </si>
+  <si>
+    <t>Flo Rida Featuring will.i.am</t>
+  </si>
+  <si>
+    <t>John Mayer</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Ne-Yo</t>
+  </si>
+  <si>
+    <t>Lupe Fiasco Featuring Matthew Santos</t>
+  </si>
+  <si>
+    <t>J. Holiday</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>David Banner Featuring Chris Brown</t>
+  </si>
+  <si>
+    <t>David Cook</t>
+  </si>
+  <si>
+    <t>Three 6 Mafia Featuring Project Pat, Young D &amp; Superpower</t>
+  </si>
+  <si>
+    <t>Baby Bash Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Natasha Bedingfield Featuring Sean Kingston</t>
+  </si>
+  <si>
+    <t>Jonas Brothers</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>The-Dream</t>
+  </si>
+  <si>
+    <t>David Archuleta</t>
+  </si>
+  <si>
+    <t>Plies Featuring Akon</t>
+  </si>
+  <si>
+    <t>Kanye West Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Mary J. Blige</t>
+  </si>
+  <si>
+    <t>Rick Ross Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Kid Rock</t>
+  </si>
+  <si>
+    <t>Trey Songz</t>
+  </si>
+  <si>
+    <t>Gavin DeGraw</t>
+  </si>
+  <si>
+    <t>The Game Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Keyshia Cole</t>
+  </si>
+  <si>
+    <t>Kanye West Featuring Dwele</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Bobby Valentino &amp; Kidd Kidd</t>
+  </si>
+  <si>
+    <t>Trace Adkins</t>
+  </si>
+  <si>
+    <t>Gavin Rossdale</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring Keri Hilson</t>
+  </si>
+  <si>
+    <t>Saving Abel</t>
+  </si>
+  <si>
+    <t>Santana Featuring Chad Kroeger</t>
+  </si>
+  <si>
+    <t>2 Pistols Featuring T-Pain &amp; Tay Dizm</t>
   </si>
   <si>
     <t>Closed off from love, I didn't need the pain
@@ -93,12 +642,6 @@
 Keep, keep bleeding love</t>
   </si>
   <si>
-    <t>No One</t>
-  </si>
-  <si>
-    <t>Alicia Keys</t>
-  </si>
-  <si>
     <t>I just want you close
 Where you can stay forever
 You can be sureThat it will only get better
@@ -149,12 +692,6 @@
 Oh-oh, oh-oh
 Oh-oh, oh-oh
 Oh-oh, oh-oh, oh, oh, oh, oh, oh</t>
-  </si>
-  <si>
-    <t>Lollipop</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Static Major</t>
   </si>
   <si>
     <t>Oww! Uh-huh
@@ -251,12 +788,6 @@
 (What you do?) So I let her lick the rapper</t>
   </si>
   <si>
-    <t>Apologize</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring OneRepublic</t>
-  </si>
-  <si>
     <t>I'm holding on your rope
 Got me ten feet off the ground
 And I'm hearing what you sayBut I just can't make a sound
@@ -282,12 +813,6 @@
 I said it's too late to apologize, yeah
 I'm holding on your rope
 Got me ten feet off the ground</t>
-  </si>
-  <si>
-    <t>No Air</t>
-  </si>
-  <si>
-    <t>Jordin Sparks Duet With Chris Brown</t>
   </si>
   <si>
     <t>Tell me how I'm supposed to breathe with no air (air)
@@ -366,12 +891,6 @@
 No air</t>
   </si>
   <si>
-    <t>Love Song</t>
-  </si>
-  <si>
-    <t>Sara Bareilles</t>
-  </si>
-  <si>
     <t>Head under water
 And they tell me
 To breathe easy for a whileThe breathing gets harder
@@ -439,18 +958,6 @@
 When I believe that there's a reason to write you
 A love song today
 Today, yeah</t>
-  </si>
-  <si>
-    <t>Love In This Club</t>
-  </si>
-  <si>
-    <t>Usher Featuring Young Jeezy</t>
-  </si>
-  <si>
-    <t>With You</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
   </si>
   <si>
     <t>And I need you, boo
@@ -530,9 +1037,6 @@
 With you, with you, with you, with you, with you, oh
 With you, with you, with you, with you, with you (With you)
 Only with you (With you, with you, with you, with you, with you) babe yeah</t>
-  </si>
-  <si>
-    <t>Forever</t>
   </si>
   <si>
     <t>1, 2, 3, 4!
@@ -626,18 +1130,6 @@
 Forever, ever, oh</t>
   </si>
   <si>
-    <t>Sexy Can I</t>
-  </si>
-  <si>
-    <t>Ray J &amp; Yung Berg</t>
-  </si>
-  <si>
-    <t>Take A Bow</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>Oh, how about a round of applause?
 Yeah, standing ovation
 Oh-oh, yeah, yeah, yeah, yeah, yeahYou look so dumb right now
@@ -688,12 +1180,6 @@
 But it's over now</t>
   </si>
   <si>
-    <t>Viva La Vida</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
     <t>I used to rule the world
 Seas would rise when I gave the word
 Now in the morning I sleep aloneSweep the streets I used to own
@@ -737,12 +1223,6 @@
 I know Saint Peter won't call my name
 Never an honest word
 But that was when I ruled the world</t>
-  </si>
-  <si>
-    <t>I Kissed A Girl</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
   </si>
   <si>
     <t>This was never the way I planned
@@ -789,12 +1269,6 @@
 Don't mean I'm in love tonight
 I kissed a girl and I liked it
 I liked it</t>
-  </si>
-  <si>
-    <t>Whatever You Like</t>
-  </si>
-  <si>
-    <t>T.I.</t>
   </si>
   <si>
     <t>Hey, Jim
@@ -877,9 +1351,6 @@
 I said you can go whatever you like (You like)
 Yeah
 Hey, Jim (Hey, Jim)</t>
-  </si>
-  <si>
-    <t>Disturbia</t>
   </si>
   <si>
     <t>Bum bum be-dum, bum bum be-dum bum (What's wrong with me?)
@@ -964,9 +1435,6 @@
 Bum bum be-dum, bum bum be-dum bum
 Bum bum be-dum, bum bum be-dum bum
 Bum bum be-dum, bum bum be-dum bum</t>
-  </si>
-  <si>
-    <t>Don't Stop The Music</t>
   </si>
   <si>
     <t>Please don't stop the music (Music, music, music, music)
@@ -1065,12 +1533,6 @@
 Please don't stop the music (Music, music, music, music)</t>
   </si>
   <si>
-    <t>Pocketful Of Sunshine</t>
-  </si>
-  <si>
-    <t>Natasha Bedingfield</t>
-  </si>
-  <si>
     <t>Oh, yeah, yeah, yeah...
 I got a pocket, got a pocketful of sunshineI got a love and I know that it's all mine, oh, oh-oh
 Do what you want but you're never gonna break me
@@ -1141,18 +1603,6 @@
 And takes me for a ride
 I smile up to the sky
 I know I'll be alright</t>
-  </si>
-  <si>
-    <t>Kiss Kiss</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring T-Pain</t>
-  </si>
-  <si>
-    <t>Closer</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
   </si>
   <si>
     <t>Closer
@@ -1236,12 +1686,6 @@
 Come closer</t>
   </si>
   <si>
-    <t>Bubbly</t>
-  </si>
-  <si>
-    <t>Colbie Caillat</t>
-  </si>
-  <si>
     <t>Will you count me in?
 I've been awake for a while nowYou got me feelin' like a child, now
 'Cause every time I see your bubbly face
@@ -1294,12 +1738,6 @@
 I always know
 'Cause you make me smile
 Even just for a while</t>
-  </si>
-  <si>
-    <t>Touch My Body</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
   </si>
   <si>
     <t>MC, uh uh uh
@@ -1365,12 +1803,6 @@
 Ooh, ooh ooh
 (Touch my body)
 C'mon and give me what I deserve</t>
-  </si>
-  <si>
-    <t>4 Minutes</t>
-  </si>
-  <si>
-    <t>Madonna Featuring Justin Timberlake &amp; Timbaland</t>
   </si>
   <si>
     <t>I'm outta time and all I got is four minutes, four minutes!
@@ -1440,12 +1872,6 @@
 Tick tock, tick tock, tick tock
 Tick tock, tick tock, tick tock
 I've only got four minutes to save the world</t>
-  </si>
-  <si>
-    <t>So What</t>
-  </si>
-  <si>
-    <t>P!nk</t>
   </si>
   <si>
     <t>Na-na-na-na, na-na, na
@@ -1543,12 +1969,6 @@
 Ba-da-da-da, da-da</t>
   </si>
   <si>
-    <t>Paralyzer</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
     <t>I hold on so nervously, to me and my drink
 I wish it was coolin' me
 But so far has not been goodIt's been shitty, and I feel awkward as I should
@@ -1582,12 +2002,6 @@
 You'll probably move right through me on my way to you
 You'll probably move right through me on my way to you
 You'll probably move right through me on my way to you</t>
-  </si>
-  <si>
-    <t>Clumsy</t>
-  </si>
-  <si>
-    <t>Fergie</t>
   </si>
   <si>
     <t>She can't help it
@@ -1664,12 +2078,6 @@
 So in love with you</t>
   </si>
   <si>
-    <t>I'm Yours</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
-  </si>
-  <si>
     <t>Well, you done done me, and you bet I felt it
 I tried to be chill, but you're so hot that I melted
 I fell right through the cracksNow I'm trying to get back
@@ -1718,12 +2126,6 @@
 Oh I'm Yours!
 Woah, woah, baby do believe I'm Yours
 You best believe, you best believe I'm Yours, mmhm!</t>
-  </si>
-  <si>
-    <t>Leavin'</t>
-  </si>
-  <si>
-    <t>Jesse McCartney</t>
   </si>
   <si>
     <t>Hmm...
@@ -1792,18 +2194,6 @@
 (Uh, oh, oh, oh, oh)</t>
   </si>
   <si>
-    <t>Dangerous</t>
-  </si>
-  <si>
-    <t>Kardinal Offishall Featuring Akon</t>
-  </si>
-  <si>
-    <t>Tattoo</t>
-  </si>
-  <si>
-    <t>Jordin Sparks</t>
-  </si>
-  <si>
     <t>No matter what you say about love
 I keep coming back for moreKeep my hand in the fire, sooner or later
 I get what I'm asking for
@@ -1864,12 +2254,6 @@
 I'll always have you</t>
   </si>
   <si>
-    <t>See You Again</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
-  </si>
-  <si>
     <t>I got my sight set on you
 And I'm ready to aim
 I have a heart that willNever be tamed
@@ -1927,12 +2311,6 @@
 My heart, it can't rest 'til then
 Woah woah, I, I can't wait to see you again
 Woah woah, I, I can't wait to see you again</t>
-  </si>
-  <si>
-    <t>Shake It</t>
-  </si>
-  <si>
-    <t>Metro Station</t>
   </si>
   <si>
     <t>Let's drop!
@@ -1996,12 +2374,6 @@
 Shake, sahke, shake, shake, shake it</t>
   </si>
   <si>
-    <t>Stop And Stare</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
-  </si>
-  <si>
     <t>This town is colder now, I think it's sick of us
 It's time to make our move, I'm shaking off the rust
 I've got my heart set on anywhere but hereI'm staring down myself, counting up the years
@@ -2039,12 +2411,6 @@
 Yeah, I know that everyone gets scared
 But I've become what I can't be
 Oh, do you see what I see?</t>
-  </si>
-  <si>
-    <t>Take You There</t>
-  </si>
-  <si>
-    <t>Sean Kingston</t>
   </si>
   <si>
     <t>YO!
@@ -2138,12 +2504,6 @@
 Shawty I could take you there</t>
   </si>
   <si>
-    <t>Paper Planes</t>
-  </si>
-  <si>
-    <t>M.I.A.</t>
-  </si>
-  <si>
     <t>I fly like paper, get high like planes
 If you catch me at the border I got visas in my name
 If you come around here, I make 'em all dayI get one done in a second if you wait
@@ -2221,9 +2581,6 @@
 And take your money</t>
   </si>
   <si>
-    <t>Hot N Cold</t>
-  </si>
-  <si>
     <t>You change your mind like a girl changes clothes
 Yeah, you PMS like a bitch, I would know
 And you overthink, always speak crypticallyI should know that you're no good for me
@@ -2287,12 +2644,6 @@
 You're yes, then you're no
 You're in, then you're out
 You're up, then you're down</t>
-  </si>
-  <si>
-    <t>Live Your Life</t>
-  </si>
-  <si>
-    <t>T.I. Featuring Rihanna</t>
   </si>
   <si>
     <t>Estoy loca enamorada de ti
@@ -2371,12 +2722,6 @@
 And you don't want to face what's wrong or right</t>
   </si>
   <si>
-    <t>Bust It Baby Part 2</t>
-  </si>
-  <si>
-    <t>Plies Featuring Ne-Yo</t>
-  </si>
-  <si>
     <t>J-J-J-J-J.R.
 Busssst, it, ba-byAy, can I please talk to my
 Bust it, babies real quick homie?
@@ -2446,12 +2791,6 @@
 Everybody know that my.
 (BUSSST, IIIIIIT...) My ba-bay!
 Everybody know that's my.</t>
-  </si>
-  <si>
-    <t>American Boy</t>
-  </si>
-  <si>
-    <t>Estelle Featuring Kanye West</t>
   </si>
   <si>
     <t>Just another one champion sound
@@ -2527,12 +2866,6 @@
 Take me to New York, I'd love to see LA
 I really want to come kick it with you
 You'll be my American boy, American boy</t>
-  </si>
-  <si>
-    <t>Got Money</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring T-Pain</t>
   </si>
   <si>
     <t>Yeah, yeah!
@@ -2620,12 +2953,6 @@
 Uh-huh... um, Young Mula baby</t>
   </si>
   <si>
-    <t>Our Song</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>I was ridin' shotgun with my hair undone
 In the front seat of his car
 He's got a one-hand feel on the steering wheelThe other on my heart
@@ -2673,12 +3000,6 @@
 In the front seat of his car
 I grabbed a pen and an old napkin
 And I wrote down our song</t>
-  </si>
-  <si>
-    <t>Damaged</t>
-  </si>
-  <si>
-    <t>Danity Kane</t>
   </si>
   <si>
     <t>Do, do you got a first aid kit handy?
@@ -2780,12 +3101,6 @@
 This too shall pass)</t>
   </si>
   <si>
-    <t>A Milli</t>
-  </si>
-  <si>
-    <t>Lil Wayne</t>
-  </si>
-  <si>
     <t>Bangladesh
 Young Money!
 You dig?Mack, I'm going in
@@ -2864,12 +3179,6 @@
 I'm illy, C3, 3 Peat</t>
   </si>
   <si>
-    <t>Sorry</t>
-  </si>
-  <si>
-    <t>Buckcherry</t>
-  </si>
-  <si>
     <t>Oh I
 Had a lot to say
 Was thinkingOn my time away
@@ -2933,21 +3242,6 @@
 I'm sorry.</t>
   </si>
   <si>
-    <t>Independent</t>
-  </si>
-  <si>
-    <t>Webbie Featuring Lil' Phat &amp; Lil' Boosie</t>
-  </si>
-  <si>
-    <t>Can't Believe It</t>
-  </si>
-  <si>
-    <t>T-Pain Featuring Lil Wayne</t>
-  </si>
-  <si>
-    <t>Like You'll Never See Me Again</t>
-  </si>
-  <si>
     <t>If I had no more time
 No more time left to be here
 Would you cherish what we had?Was it everything that you were looking for?
@@ -3009,9 +3303,6 @@
 Oh-oh-oh</t>
   </si>
   <si>
-    <t>Teardrops On My Guitar</t>
-  </si>
-  <si>
     <t>Drew looks at me
 I fake a smile so he won't see
 What I want and I needAnd everything that we should be
@@ -3055,12 +3346,6 @@
 And he's all that I need to fall into
 Drew looks at me
 I fake a smile so he won't see</t>
-  </si>
-  <si>
-    <t>When I Grow Up</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls</t>
   </si>
   <si>
     <t>Boys call you sexy (what's up, sexy?)
@@ -3164,12 +3449,6 @@
 You just might get it, get it? (you might get it)</t>
   </si>
   <si>
-    <t>Sensual Seduction</t>
-  </si>
-  <si>
-    <t>Snoop Dogg</t>
-  </si>
-  <si>
     <t>I'm gonna take my time
 She gon' get hers before I
 I'm gonna take it slowI'm not gonna rush the stroll
@@ -3234,18 +3513,6 @@
 Sensual seduction</t>
   </si>
   <si>
-    <t>What You Got</t>
-  </si>
-  <si>
-    <t>Colby O'Donis Featuring Akon</t>
-  </si>
-  <si>
-    <t>It's Not My Time</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
     <t>Looking back at the beginning of this
 And how life was
 Just you and me and love and all of our friendsLiving life like an ocean
@@ -3305,9 +3572,6 @@
 Yeah!</t>
   </si>
   <si>
-    <t>Better In Time</t>
-  </si>
-  <si>
     <t>Oooh oooh
 HmmmmhIt's been the longest winter without you
 I didn't know where to turn to
@@ -3359,12 +3623,6 @@
 And even though I really love you
 Gonna smile 'cause I deserve to
 It'll all get better in time</t>
-  </si>
-  <si>
-    <t>Crank That (Soulja Boy)</t>
-  </si>
-  <si>
-    <t>Soulja Boy Tell'em</t>
   </si>
   <si>
     <t>Soulja boy tell 'em
@@ -3458,12 +3716,6 @@
 Watch me crank dat Soulja Boy</t>
   </si>
   <si>
-    <t>Shadow Of The Day</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
     <t>I close both locks below the window
 I close both blinds and turn away
 Sometimes solutions aren't so simpleSometimes goodbye's the only way, aa-ah
@@ -3487,12 +3739,6 @@
 And the shadow of the day
 Will embrace the world in gray
 And the sun will set for you</t>
-  </si>
-  <si>
-    <t>Sweetest Girl (Dollar Bill)</t>
-  </si>
-  <si>
-    <t>Wyclef Jean Featuring Akon, Lil Wayne &amp; Niia</t>
   </si>
   <si>
     <t>Some live for the bill
@@ -3597,9 +3843,6 @@
 Where my money at?</t>
   </si>
   <si>
-    <t>Miss Independent</t>
-  </si>
-  <si>
     <t>Yeah yeah, yeah yeah
 Yeah yeah, yeah yeah
 Yeah yeah, yeah yeah yeahOoh it's somethin' about
@@ -3680,12 +3923,6 @@
 That's why I love her</t>
   </si>
   <si>
-    <t>Fall For You</t>
-  </si>
-  <si>
-    <t>Secondhand Serenade</t>
-  </si>
-  <si>
     <t>The best thing 'bout tonight's that we're not fighting
 Could it be that we have been this way before?
 I know you don't think that I am tryingI know you're wearing thin down to the core
@@ -3726,18 +3963,6 @@
 I swear it's true
 Because a girl like you is impossible to find
 You're impossible to find</t>
-  </si>
-  <si>
-    <t>In The Ayer</t>
-  </si>
-  <si>
-    <t>Flo Rida Featuring will.i.am</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
-    <t>John Mayer</t>
   </si>
   <si>
     <t>Take out of your wasted honor
@@ -3794,9 +4019,6 @@
 Say what you need to say
 Say what you need to say
 Say what you need to say</t>
-  </si>
-  <si>
-    <t>One Step At A Time</t>
   </si>
   <si>
     <t>Hurry up and wait
@@ -3861,12 +4083,6 @@
 One step at a time</t>
   </si>
   <si>
-    <t>Hate That I Love You</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Ne-Yo</t>
-  </si>
-  <si>
     <t>Yeah, yeah
 Hey, yeah
 That's how much I love you (Yeah)That's how much I need you (Yeah, yeah, yeah)
@@ -3918,18 +4134,6 @@
 But I just can't let you go (But I just can't let you go, no)
 And I hate that I love you so (Ooh)
 And I hate that I love you so, so</t>
-  </si>
-  <si>
-    <t>Superstar</t>
-  </si>
-  <si>
-    <t>Lupe Fiasco Featuring Matthew Santos</t>
-  </si>
-  <si>
-    <t>Suffocate</t>
-  </si>
-  <si>
-    <t>J. Holiday</t>
   </si>
   <si>
     <t>Now even though I try to play it off
@@ -3997,21 +4201,6 @@
 Ooh, no, no, I can't breathe</t>
   </si>
   <si>
-    <t>Let It Rock</t>
-  </si>
-  <si>
-    <t>Kevin Rudolf Featuring Lil Wayne</t>
-  </si>
-  <si>
-    <t>Get Like Me</t>
-  </si>
-  <si>
-    <t>David Banner Featuring Chris Brown</t>
-  </si>
-  <si>
-    <t>Realize</t>
-  </si>
-  <si>
     <t>Take time to realize
 That your warmth is
 Crashing down on inTake time to realize
@@ -4058,24 +4247,6 @@
 Missed out on each other now
 Missed out on each other, now, yeah
 Realize, realize, realize, realize</t>
-  </si>
-  <si>
-    <t>Put On</t>
-  </si>
-  <si>
-    <t>Young Jeezy Featuring Kanye West</t>
-  </si>
-  <si>
-    <t>The Time Of My Life</t>
-  </si>
-  <si>
-    <t>David Cook</t>
-  </si>
-  <si>
-    <t>Lolli Lolli (Pop That Body)</t>
-  </si>
-  <si>
-    <t>Three 6 Mafia Featuring Project Pat, Young D &amp; Superpower</t>
   </si>
   <si>
     <t>Yea three six mafia
@@ -4182,12 +4353,6 @@
 Make that lolli pop</t>
   </si>
   <si>
-    <t>Cyclone</t>
-  </si>
-  <si>
-    <t>Baby Bash Featuring T-Pain</t>
-  </si>
-  <si>
     <t>O-oh (O-oh)
 O-oh (O-oh)
 O-oh (O-oh)Swanananani (nanani, nanani, nanani)
@@ -4284,12 +4449,6 @@
 (Ayyvo)</t>
   </si>
   <si>
-    <t>Love Like This</t>
-  </si>
-  <si>
-    <t>Natasha Bedingfield Featuring Sean Kingston</t>
-  </si>
-  <si>
     <t>Oh...
 Never find a love like this
 Oh...Never find a love like this
@@ -4373,12 +4532,6 @@
 Oh... Never find a love like this</t>
   </si>
   <si>
-    <t>Burnin' Up</t>
-  </si>
-  <si>
-    <t>Jonas Brothers</t>
-  </si>
-  <si>
     <t>I'm hot
 You're cold
 You go aroundLike you know
@@ -4437,12 +4590,6 @@
 'Cause I'm burnin' up
 Burnin' up for you baby
 Burnin' up for you baby</t>
-  </si>
-  <si>
-    <t>Love Lockdown</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
   </si>
   <si>
     <t>I'm not loving you, the way I wanted to
@@ -4506,12 +4653,6 @@
 You lose, you lose
 You lose, you lose
 You lose</t>
-  </si>
-  <si>
-    <t>I Luv Your Girl</t>
-  </si>
-  <si>
-    <t>The-Dream</t>
   </si>
   <si>
     <t>Mm mm
@@ -4598,12 +4739,6 @@
 Damn she bad, bad, bad, bad</t>
   </si>
   <si>
-    <t>Crush</t>
-  </si>
-  <si>
-    <t>David Archuleta</t>
-  </si>
-  <si>
     <t>Oooooh, ohhhhh
 Oooooh, ohhhhhI hung up the phone tonight
 Something happened for the first time
@@ -4658,12 +4793,6 @@
 (This crush ain't) Goin' away (Goin' away)
 Goin' away
 Goin' away</t>
-  </si>
-  <si>
-    <t>Hypnotized</t>
-  </si>
-  <si>
-    <t>Plies Featuring Akon</t>
   </si>
   <si>
     <t>Hey what's happ'nin' homie? This ya lil' whoa Plies man
@@ -4734,9 +4863,6 @@
 That booty keep bumpin', titties just bouncin', up and down</t>
   </si>
   <si>
-    <t>Big Girls Don't Cry</t>
-  </si>
-  <si>
     <t>Da da da da
 The smell of your skin lingers on me nowYou're probably on your flight back to your home town
 I need some shelter of my own protection, baby
@@ -4785,12 +4911,6 @@
 Don't cry
 Don't cry
 La da da da da da</t>
-  </si>
-  <si>
-    <t>Good Life</t>
-  </si>
-  <si>
-    <t>Kanye West Featuring T-Pain</t>
   </si>
   <si>
     <t>Like we always do at this time
@@ -4881,12 +5001,6 @@
 I'm good</t>
   </si>
   <si>
-    <t>Womanizer</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
     <t>Superstar, where you from? How's it going?
 I know you got a clue what you're doing
 You can play brand new to all the other chicks out hereBut I know what you are, what you are, baby
@@ -4961,9 +5075,6 @@
 Oh, womanizer, oh, you're a womanizer, baby</t>
   </si>
   <si>
-    <t>Love Story</t>
-  </si>
-  <si>
     <t>We were both young when I first saw you
 I close my eyes and the flashback starts
 I'm standing there, on a balcony, in summer airSee the lights, see the party, the ball gowns
@@ -5006,12 +5117,6 @@
 I talked to your dad, go pick out a white dress
 It's a love story, baby, just say yes"
 'Cause we were both young when I first saw you</t>
-  </si>
-  <si>
-    <t>Just Fine</t>
-  </si>
-  <si>
-    <t>Mary J. Blige</t>
   </si>
   <si>
     <t>You know I love music
@@ -5085,9 +5190,6 @@
 You see I wouldn't change my life, my life's just fine</t>
   </si>
   <si>
-    <t>Piece Of Me</t>
-  </si>
-  <si>
     <t>I'm Miss American Dream since I was 17
 Don't matter if I step on the scene or sneak away to the Philippines
 They still gon' put pictures of my derrière in the magazineYou want a piece of me? You want a piece of me?
@@ -5136,12 +5238,6 @@
 You want a piece of me, me?
 (Oh yeah)
 (Oh yeah)</t>
-  </si>
-  <si>
-    <t>The Boss</t>
-  </si>
-  <si>
-    <t>Rick Ross Featuring T-Pain</t>
   </si>
   <si>
     <t>Ricky Ross (The Boss.)
@@ -5203,18 +5299,6 @@
 I'm the - I'm the biggest boss that you seen thus far
 I'm the biggest boss that you seen thus far
 I'm the - I'm the biggest boss that you seen thus far</t>
-  </si>
-  <si>
-    <t>All Summer Long</t>
-  </si>
-  <si>
-    <t>Kid Rock</t>
-  </si>
-  <si>
-    <t>Can't Help But Wait</t>
-  </si>
-  <si>
-    <t>Trey Songz</t>
   </si>
   <si>
     <t>I can't help but wait
@@ -5283,18 +5367,6 @@
 Ohohoh
 Can't help wait
 No oh no oh no oh</t>
-  </si>
-  <si>
-    <t>In Love With A Girl</t>
-  </si>
-  <si>
-    <t>Gavin DeGraw</t>
-  </si>
-  <si>
-    <t>My Life</t>
-  </si>
-  <si>
-    <t>The Game Featuring Lil Wayne</t>
   </si>
   <si>
     <t>And I'm grindin til I'm tired
@@ -5380,12 +5452,6 @@
 My life</t>
   </si>
   <si>
-    <t>I Remember</t>
-  </si>
-  <si>
-    <t>Keyshia Cole</t>
-  </si>
-  <si>
     <t>Ooh, yeah, yeah
 Ooh
 Yeah, babeOoh, I remember
@@ -5435,12 +5501,6 @@
 I remember when I stormed out
 I remember when I gave, up loving you
 I was sad and lonely</t>
-  </si>
-  <si>
-    <t>Flashing Lights</t>
-  </si>
-  <si>
-    <t>Kanye West Featuring Dwele</t>
   </si>
   <si>
     <t>Flashing lights (lights, lights, lights)
@@ -5498,12 +5558,6 @@
 Flashing lights (lights, lights, lights)
 Flashing lights (lights, lights, lights)
 Flashing lights</t>
-  </si>
-  <si>
-    <t>Mrs. Officer</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Bobby Valentino &amp; Kidd Kidd</t>
   </si>
   <si>
     <t>Valentine woo, woo, wooo... (yeah, yeahh)... yea, yea, yea
@@ -5620,9 +5674,6 @@
 I'll make ya say...</t>
   </si>
   <si>
-    <t>7 Things</t>
-  </si>
-  <si>
     <t>I probably shouldn't say this
 But at times I get so scared
 When I think about the previousRelationship we shared
@@ -5681,12 +5732,6 @@
 Ooh-ooh-ooh</t>
   </si>
   <si>
-    <t>You're Gonna Miss This</t>
-  </si>
-  <si>
-    <t>Trace Adkins</t>
-  </si>
-  <si>
     <t>She was staring out the window, of their SUV
 Complaining, saying I can't wait to turn 18
 She said I'll make my own money, and I'll make my own rulesMama put the car in park out there in front of the school
@@ -5714,12 +5759,6 @@
 These are some good times, so take a good look around
 You may not know it now, but you're gonna miss this
 You're gonna miss this, yeah you're gonna miss this</t>
-  </si>
-  <si>
-    <t>Love Remains The Same</t>
-  </si>
-  <si>
-    <t>Gavin Rossdale</t>
   </si>
   <si>
     <t>A thousand times I've seen you standing
@@ -5782,12 +5821,6 @@
 Love remains the same</t>
   </si>
   <si>
-    <t>Feels Like Tonight</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
     <t>You, you got me thinking it'll be alright
 You, you told me, "Come and take a look inside"
 You believed me, every single lieBut I, I failed you this time
@@ -5821,12 +5854,6 @@
 'Cause there's nothing that I wanna do
 But try to make it up to you
 And it feels like tonight, tonight</t>
-  </si>
-  <si>
-    <t>The Way I Are</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring Keri Hilson</t>
   </si>
   <si>
     <t>Yeah!
@@ -5871,12 +5898,6 @@
 So listen baby girl, once you get a dose of D.O.E. you gon' want some mo'
 So listen baby girl, when I'm naked I want you there,
 Fuckin' want you there, yeah</t>
-  </si>
-  <si>
-    <t>Addicted</t>
-  </si>
-  <si>
-    <t>Saving Abel</t>
   </si>
   <si>
     <t>I'm so addicted to
@@ -5948,12 +5969,6 @@
 Addicted to you</t>
   </si>
   <si>
-    <t>Into The Night</t>
-  </si>
-  <si>
-    <t>Santana Featuring Chad Kroeger</t>
-  </si>
-  <si>
     <t>Like a gift from the heavens, it was easy to tell
 It was love from above that could save me from hell
 She had fire in her soul, it was easy to seeHow the devil himself could be pulled out of me
@@ -6007,9 +6022,6 @@
 Singing ay oh ay oh ay oh ay
 (Ay oh ay oh)
 And we danced on into the night</t>
-  </si>
-  <si>
-    <t>Heaven Sent</t>
   </si>
   <si>
     <t>Sent from heaven
@@ -6083,12 +6095,6 @@
 Because you're sent from, sent from heaven</t>
   </si>
   <si>
-    <t>She Got It</t>
-  </si>
-  <si>
-    <t>2 Pistols Featuring T-Pain &amp; Tay Dizm</t>
-  </si>
-  <si>
     <t>I know she got it Cause she lookin at me like she want it (Want It)
 She Drop it low, Make me wanna throw Some d's on it (Hey)
 Whatever it is you cant stop it, cause she get lowwwWhen she on that pole, and that lets me know
@@ -6148,16 +6154,366 @@
 (She got it) (She got it) (She got it)
 (Fading) Finest body that i ever seen before</t>
   </si>
+  <si>
+    <t>Sexy can I
+Yeah! Ray (Yeah)
+We out here
+It's young boss, knockout
+All we wanna know is (Sexy, can I?)
+First round, ladies
+Sexy, can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+Sexy can I, hit it from the front?
+Can I hit it from the back?
+Know you like it like that
+Then we take it to the bed, then we take it to the floor
+Then we chill for a second, then we back at it for more
+Sexy can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+Ay, waddup, lil' mama? It's ya boy Youngin
+G5 dipped in Louis Vuitton luggage, ay
+Gotta love it, your boy so fly
+And all the ladies go (Oh) when a nigga go by
+Gucci on the feet, Marc Jacob on the thigh
+She wanna ride or die with ya boy in the Chi
+That's right, so I let her kiss the prince
+Her boyfriend, she ain't missed him since
+Sexy can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+Sexy can I, keep it on the low
+Got a girl at the crib, we can take it to the mo-mo
+You can bring a friend, or you can ride solo
+Let me get my camera, so we can take a photo
+Ooh, ooh (Now go shawty, go shawty)
+Baby, when we make love it's like (Ooh, ooh)
+(I don't know what your man is like)
+(But shawty all I wanna know is)
+Sexy can I?
+Sexy can I, visit you at work?
+When you sliding down the pole
+No panties, no shirt
+Then you climb back up the pole
+Then you drop and do the splits
+How you make that booty talk
+Baby, damn you on some real shit
+Ooh, ooh (Now go shawty, go shawty)
+I make it rain in the club like (Ooh, ooh)
+(And I don't know what your man is like)
+(But baby all I wanna know is))
+Sexy can I?
+Sexy can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+She ain't concerned with, who ya boy's hittin, or who Ray's nailin'
+So when I give it to her, I know that she ain't tellin'
+See I'm a go getta and she a go get-it
+You already know she
+(Sexy can I?)
+Sexy, can I send for you red-eye?
+Fresh out the pool, no towel, let it air-dry
+And if you ain't fuckin' tonight
+Then you can watch our tour bus go by
+Sexy can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh, baby)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+Sexy can I, hit it from the front?
+Can I hit it from the back?
+Know you like it like that
+Then we take it to the bed, then we take it to the floor
+Then we chill for a second, then were back at it for more
+Sexy can I? Just pardon my manners
+Girl, how you shake it, got a player like (Oh)
+It's a Kodak moment, let me go and get my camera
+All I wanna know is, sexy can I?
+I just wanna have some fun
+You know I wanna have some too
+Ay, I said, can I just have some fun?
+We about to turn the mansion out
+And we can do it with the cameras out
+Sexy, can I?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are what you say you are
+A super star
+Then have no fear the camera's here and the microphone and they wanna know
+Oh oh oh oh
+If you are what you say you are
+A super star
+Then have no fear the crowd is here and the lights are on and they want a show
+Oh oh oh oh
+Yea, uh
+A fresh cool young Lu
+Trying to cash his microphone check 2, 1, 2
+Want to believe my own hype but it's too untrue
+The world brought me to my knees
+What have you brung you
+Did you improve on the design
+Did you do something new
+Well your name ain't on the guest list
+Who brung you, you
+The more famous person you come through
+And the sexy lady next to you
+You come to
+And then it hit me
+Standing outside of heaven waiting for god to come and get me
+Im too uncouth
+Unschooled to the rules
+And two gum shoe
+Too much of a newcomer
+And too uncool
+Like Shadow and Lavelle
+I battle with it well
+Though I need a holiday like lady who song blue
+Go back what ever you did you undo
+Heavy is heaven
+The devil on my two tons too
+If you are what you say you are
+A super star
+Then have no fear the camera's here and the microphone and they wanna know
+Oh oh oh oh
+If you are what you say you are
+A super star
+Then have no fear the crowd is here and the lights are on and they want a show
+Oh oh oh oh
+And you better wear your shades
+The spotlights here can burn holes through the stage
+Down through the basement
+Passed the Indian graves
+Where the dinosaurs laid
+And out through china
+Nearly misses air liners
+Magnified times five
+This is pointed at the rhymer
+Ricochets off the moon and sets the forest a blaze
+Now that's important to say
+Cuz even with all of that
+Most of us don't want it to fade
+We want it to braid
+Meaning we want it to grow
+Meaning we want it to stay
+Like the governor called
+And they told him to wait
+Un-strap him from the chair
+And put him back in his cage
+The audience ain't fazed
+And they ain't gone clap and they ain't gone praise
+They want everything back that they paid
+Cuz they been waiting since ten to see the lights get dim
+If you are what you say you are
+A super star
+Then have no fear the camera's here and the microphone and they wanna know
+Oh oh oh oh
+If you are what you say you are
+A super star
+Then have no fear the crowd is here and the lights are on and they want a show
+Oh oh oh oh
+So chauffeur chauffeur come and take me away
+Cuz I been standing in this line
+For like five whole days
+Me and security ain't getting along
+And when I got to the front they told me all of the tickets were gone
+So just take me home where the mood is mellow
+And the roses are thrown
+M&amp;M's are yellow
+And the light bulbs around my mirror don't flicker
+Everybody gets a nice autograph picture
+One for you and one for your sister
+Who had to work tonight but is an avid listener
+Every songs a favorite song
+And mikes don't feed back
+All the reviewers say you need to go and see that
+And everybody claps cuz everybody is pleased
+Then they all take the stage and start performing for me
+Like ha ha hahaha
+Ha ha hahaha ha
+If you are what you say you are
+A super star
+Then have no fear the camera's here and the microphone and they wanna know
+Oh oh oh oh
+If you are what you say you are
+A super star
+Then have no fear the crowd is here and the lights are on and they want a show
+Oh oh oh oh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've been waiting for my dreams
+To turn into something
+I could believe in
+And looking for that
+Magic rainbow
+On the horizon
+I couldn't see it
+Until I let go
+Gave into love
+And watched all the bitterness burn
+Now I'm coming alive
+Body and soul
+Feelin' my world start to turn
+And I'll taste every moment
+And live it out loud
+I know this is the time
+This is the time to be
+More than a name
+Or a face in the crowd
+I know this is the time
+This is the time of my life
+Time of my life
+Holding onto things that vanished
+Into the air
+Left me in pieces
+But now I'm rising from the ashes
+Finding my wings
+And all that I needed
+Was there all along
+Within my reach
+As close as the beat of my heart
+So I'll taste every moment
+And live it out loud
+I know this is the time
+This is the time to be
+More than a name
+Or a face in the crowd
+I know this is the time
+This is the time of my life
+Time of my life
+And I'm out on the edge of forever
+Ready to run
+I'm keeping my feet on the ground
+My arms open wide
+My face to the sun
+I'll taste every moment
+And live it out loud
+I know this is the time
+This is the time to be
+More than a name
+Or a face in the crowd
+I know this is the time
+This is the time of my life
+My life
+More than a name
+Or a face in the crowd
+I know This is the time
+This is the time of my life
+This is the time of my life
+The time of my life
+The time of my life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Jeezy Featuring Kanye West</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was 1989, my thoughts were short my hair was long
+Caught somewhere between a boy and man
+She was seventeen and she was far from in-between
+It was summertime in Northern Michigan
+Ahh Ahh Ahh
+Ahh Ahh Ahh
+Splashing through the sand bar
+Talking by the campfire
+It's the simple things in life, like when and where
+We didn't have no internet
+But man I never will forget
+The way the moonlight shined upon her hair
+And we were trying different things
+We were smoking funny things
+Making love out by the lake to our favorite song
+Sipping whiskey out the bottle, not thinking 'bout tomorrow
+Singing Sweet home Alabama all summer long
+Singing Sweet home Alabama all summer long
+Catching Walleye from the dock
+Watching the waves roll off the rocks
+She'll forever hold a spot inside my soul
+We'd blister in the sun
+We couldn't wait for night to come
+To hit that sand and play some rock and roll
+While we were trying different things
+And we were smoking funny things</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>So many people gonna say that they want you
+To try to get you thinking they really care
+But there's nothing like the warmth of the one
+Who has put in the time
+And you know he's gonna be there
+Backed a border when she knows someone crossed it
+Don't let nobody put you down who you're with
+Take the pain of protecting your name
+From the crutch to the cane to the high wire
+I'm in love with a girl who knows me better
+Fell for the woman just when I met her
+Took my sweet time when I was bitter
+Someone understands
+And she knows how to treat a fella right
+Give me that feeling every night
+Wants to make love when I wanna fight
+Now someone understand me
+I'm in love with a girl (I'm in love with)
+I'm in love with a girl (I'm in love with)
+After many broken back doors and windows
+Through the valley of the love of the lost
+Is a hole that is cut through the souls
+Fallen down from the tones
+Without reading innuendos
+But you found inner peace for the moment
+The moment was over in time
+Then it's gone, the hit and run
+The drifter's run has a short life
+I'm in love with a girl who knows me better
+Fell for the woman just when I met her
+Took my sweet time when I was bitter
+Someone understands
+And she knows how to treat a fella right
+Give me that feeling every night
+Wants to make love when I wanna fight
+Now someone understand me
+I'm in love with a girl (I'm in love with)
+I'm in love with a girl (I'm in love with)
+I'mma tell you what you do to thank you
+Practice what you preach
+Now I know, there's nothing we can't reach
+Cause a heart can't erase
+Once it finds a place
+To be warm and welcome
+To be held in shelter
+I'm in love with a girl who knows me better
+Fell for the woman just when I met her
+Took my sweet time when I was bitter
+Someone understands
+And she knows how to treat a fella right
+Give me that feeling every night
+Wants to make love when I wanna fight
+Now someone understand me
+I'm in love with a girl (I'm in love with)
+I'm in love with a girl (I'm in love with)
+I'm in love with a girl (I'm in love with)
+Who knows me better
+Wants to make love when I wanna fight
+Now someone understand me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6165,8 +6521,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6178,7 +6541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6186,24 +6549,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6245,7 +6634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6277,9 +6666,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6311,6 +6718,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6486,1069 +6911,1683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E93">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>264</v>
+      </c>
+      <c r="E95">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E96">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C100" t="s">
         <v>185</v>
       </c>
-      <c r="C70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>199</v>
-      </c>
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>223</v>
-      </c>
-      <c r="B84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>231</v>
-      </c>
-      <c r="B87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>233</v>
-      </c>
-      <c r="B88" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>236</v>
-      </c>
-      <c r="B89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C91" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>245</v>
-      </c>
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>247</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>250</v>
-      </c>
-      <c r="B94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>253</v>
-      </c>
-      <c r="B95" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>259</v>
-      </c>
-      <c r="B97" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" t="s">
-        <v>237</v>
-      </c>
-      <c r="C99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" t="s">
-        <v>268</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>269</v>
       </c>
+      <c r="E100">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>